--- a/datamining/final_data/sum1969_nltk.xlsx
+++ b/datamining/final_data/sum1969_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JR2"/>
+  <dimension ref="A1:HV2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,1315 +507,1075 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>conception</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>conception</t>
+          <t>creativity</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>creativity</t>
+          <t>holistic</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>holistic</t>
+          <t>intelligence</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>intelligence</t>
+          <t>relationship</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>its</t>
+          <t>bright</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>relationship</t>
+          <t>discovery</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>bright</t>
+          <t>project</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>but</t>
+          <t>self</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>discovery</t>
+          <t>students</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>effect</t>
+          <t>underachieving</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>on</t>
+          <t>art</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>project</t>
+          <t>biblically</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>self</t>
+          <t>inspired</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>students</t>
+          <t>literature</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>underachieving</t>
+          <t>music</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>art</t>
+          <t>peace</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>biblically</t>
+          <t>autobiography</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>inspired</t>
+          <t>potential</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>literature</t>
+          <t>drug</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>music</t>
+          <t>scene—cop-out</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>peace</t>
+          <t>tune-in</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>through</t>
+          <t>elementary</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>autobiography</t>
+          <t>highly</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>potential</t>
+          <t>pupils</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>drug</t>
+          <t>study</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>scene—cop-out</t>
+          <t>editorial</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>''</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>tune-in</t>
+          <t>``</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>elementary</t>
+          <t>children</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>highly</t>
+          <t>psych-ing</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>pupils</t>
+          <t>259</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>study</t>
+          <t>continued</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>editorial</t>
+          <t>omnibus</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>''</t>
+          <t>page</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>``</t>
+          <t>curiosity</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>are</t>
+          <t>performance</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>children</t>
+          <t>tests</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>timed</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>psych-ing</t>
+          <t>untimed</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>you</t>
+          <t>experience</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>your</t>
+          <t>junior</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>seminar</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>continued</t>
+          <t>gifts</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>omnibus</t>
+          <t>reducing</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>page</t>
+          <t>risks</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>curiosity</t>
+          <t>robbed</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>performance</t>
+          <t>169</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>tests</t>
+          <t>black</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>timed</t>
+          <t>college</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>untimed</t>
+          <t>counterparts</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>experience</t>
+          <t>differences</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>junior</t>
+          <t>intelligent</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>seminar</t>
+          <t>less</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>being</t>
+          <t>self-descriptions</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>gifts</t>
+          <t>columbia</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>reducing</t>
+          <t>exceptional</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>risks</t>
+          <t>helps</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>robbed</t>
+          <t>university</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>helping</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>black</t>
+          <t>limitations</t>
         </is>
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>college</t>
+          <t>people</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
-          <t>counterparts</t>
+          <t>professions</t>
         </is>
       </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>differences</t>
+          <t>recognize</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>intelligent</t>
+          <t>thy</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>less</t>
+          <t>—re</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>self-descriptions</t>
+          <t>choice</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>their</t>
+          <t>device</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>columbia</t>
+          <t>group</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>exceptional</t>
+          <t>intellectually</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>helps</t>
+          <t>peer</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>university</t>
+          <t>screening</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>helping</t>
+          <t>iii</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>limitations</t>
+          <t>need</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
-          <t>people</t>
+          <t>universal</t>
         </is>
       </c>
       <c r="CN1" s="1" t="inlineStr">
         <is>
-          <t>professions</t>
+          <t>yearning</t>
         </is>
       </c>
       <c r="CO1" s="1" t="inlineStr">
         <is>
-          <t>recognize</t>
+          <t>begin</t>
         </is>
       </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
-          <t>thy</t>
+          <t>earth</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr">
         <is>
-          <t>—re</t>
+          <t>let</t>
         </is>
       </c>
       <c r="CR1" s="1" t="inlineStr">
         <is>
-          <t>choice</t>
+          <t>book</t>
         </is>
       </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
-          <t>device</t>
+          <t>child</t>
         </is>
       </c>
       <c r="CT1" s="1" t="inlineStr">
         <is>
-          <t>group</t>
+          <t>needy/worthy</t>
         </is>
       </c>
       <c r="CU1" s="1" t="inlineStr">
         <is>
-          <t>intellectually</t>
+          <t>administrators</t>
         </is>
       </c>
       <c r="CV1" s="1" t="inlineStr">
         <is>
-          <t>peer</t>
+          <t>back</t>
         </is>
       </c>
       <c r="CW1" s="1" t="inlineStr">
         <is>
-          <t>screening</t>
+          <t>little</t>
         </is>
       </c>
       <c r="CX1" s="1" t="inlineStr">
         <is>
-          <t>iii</t>
+          <t>pat</t>
         </is>
       </c>
       <c r="CY1" s="1" t="inlineStr">
         <is>
-          <t>need</t>
+          <t>programs</t>
         </is>
       </c>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
-          <t>universal</t>
+          <t>reason</t>
         </is>
       </c>
       <c r="DA1" s="1" t="inlineStr">
         <is>
-          <t>yearning</t>
+          <t>journal</t>
         </is>
       </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
-          <t>be</t>
+          <t>reviews</t>
         </is>
       </c>
       <c r="DC1" s="1" t="inlineStr">
         <is>
-          <t>begin</t>
+          <t>incubate</t>
         </is>
       </c>
       <c r="DD1" s="1" t="inlineStr">
         <is>
-          <t>earth</t>
+          <t>long</t>
         </is>
       </c>
       <c r="DE1" s="1" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>must</t>
         </is>
       </c>
       <c r="DF1" s="1" t="inlineStr">
         <is>
-          <t>let</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="DG1" s="1" t="inlineStr">
         <is>
-          <t>me</t>
+          <t>actually</t>
         </is>
       </c>
       <c r="DH1" s="1" t="inlineStr">
         <is>
-          <t>there</t>
+          <t>anything</t>
         </is>
       </c>
       <c r="DI1" s="1" t="inlineStr">
         <is>
-          <t>with</t>
+          <t>genius</t>
         </is>
       </c>
       <c r="DJ1" s="1" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>memorizing</t>
         </is>
       </c>
       <c r="DK1" s="1" t="inlineStr">
         <is>
-          <t>child</t>
+          <t>without</t>
         </is>
       </c>
       <c r="DL1" s="1" t="inlineStr">
         <is>
-          <t>needy/worthy</t>
+          <t>disadvantaged</t>
         </is>
       </c>
       <c r="DM1" s="1" t="inlineStr">
         <is>
-          <t>administrators</t>
+          <t>positives</t>
         </is>
       </c>
       <c r="DN1" s="1" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>youth</t>
         </is>
       </c>
       <c r="DO1" s="1" t="inlineStr">
         <is>
-          <t>have</t>
+          <t>appraisal</t>
         </is>
       </c>
       <c r="DP1" s="1" t="inlineStr">
         <is>
-          <t>little</t>
+          <t>bush</t>
         </is>
       </c>
       <c r="DQ1" s="1" t="inlineStr">
         <is>
-          <t>most</t>
+          <t>education</t>
         </is>
       </c>
       <c r="DR1" s="1" t="inlineStr">
         <is>
-          <t>pat</t>
+          <t>mulberry</t>
         </is>
       </c>
       <c r="DS1" s="1" t="inlineStr">
         <is>
-          <t>programs</t>
+          <t>round</t>
         </is>
       </c>
       <c r="DT1" s="1" t="inlineStr">
         <is>
-          <t>reason</t>
+          <t>intuitions</t>
         </is>
       </c>
       <c r="DU1" s="1" t="inlineStr">
         <is>
-          <t>themselves</t>
+          <t>problems</t>
         </is>
       </c>
       <c r="DV1" s="1" t="inlineStr">
         <is>
-          <t>journal</t>
+          <t>'s</t>
         </is>
       </c>
       <c r="DW1" s="1" t="inlineStr">
         <is>
-          <t>reviews</t>
+          <t>discover</t>
         </is>
       </c>
       <c r="DX1" s="1" t="inlineStr">
         <is>
-          <t>how</t>
+          <t>happen</t>
         </is>
       </c>
       <c r="DY1" s="1" t="inlineStr">
         <is>
-          <t>incubate</t>
+          <t>i.q</t>
         </is>
       </c>
       <c r="DZ1" s="1" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>included</t>
         </is>
       </c>
       <c r="EA1" s="1" t="inlineStr">
         <is>
-          <t>must</t>
+          <t>aspects</t>
         </is>
       </c>
       <c r="EB1" s="1" t="inlineStr">
         <is>
-          <t>they</t>
+          <t>classes</t>
         </is>
       </c>
       <c r="EC1" s="1" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>demonstration</t>
         </is>
       </c>
       <c r="ED1" s="1" t="inlineStr">
         <is>
-          <t>we</t>
+          <t>guiding</t>
         </is>
       </c>
       <c r="EE1" s="1" t="inlineStr">
         <is>
-          <t>while</t>
+          <t>california</t>
         </is>
       </c>
       <c r="EF1" s="1" t="inlineStr">
         <is>
-          <t>actually</t>
+          <t>curriculum</t>
         </is>
       </c>
       <c r="EG1" s="1" t="inlineStr">
         <is>
-          <t>anything</t>
+          <t>activities</t>
         </is>
       </c>
       <c r="EH1" s="1" t="inlineStr">
         <is>
-          <t>genius</t>
+          <t>brief</t>
         </is>
       </c>
       <c r="EI1" s="1" t="inlineStr">
         <is>
-          <t>memorizing</t>
+          <t>nea</t>
         </is>
       </c>
       <c r="EJ1" s="1" t="inlineStr">
         <is>
-          <t>without</t>
+          <t>overview</t>
         </is>
       </c>
       <c r="EK1" s="1" t="inlineStr">
         <is>
-          <t>disadvantaged</t>
+          <t>diary</t>
         </is>
       </c>
       <c r="EL1" s="1" t="inlineStr">
         <is>
-          <t>positives</t>
+          <t>learning</t>
         </is>
       </c>
       <c r="EM1" s="1" t="inlineStr">
         <is>
-          <t>youth</t>
+          <t>groups</t>
         </is>
       </c>
       <c r="EN1" s="1" t="inlineStr">
         <is>
-          <t>an</t>
+          <t>leadership</t>
         </is>
       </c>
       <c r="EO1" s="1" t="inlineStr">
         <is>
-          <t>appraisal</t>
+          <t>patterns</t>
         </is>
       </c>
       <c r="EP1" s="1" t="inlineStr">
         <is>
-          <t>bush</t>
+          <t>affective</t>
         </is>
       </c>
       <c r="EQ1" s="1" t="inlineStr">
         <is>
-          <t>do</t>
+          <t>boys</t>
         </is>
       </c>
       <c r="ER1" s="1" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>domain</t>
         </is>
       </c>
       <c r="ES1" s="1" t="inlineStr">
         <is>
-          <t>having</t>
+          <t>girls</t>
         </is>
       </c>
       <c r="ET1" s="1" t="inlineStr">
         <is>
-          <t>mulberry</t>
+          <t>hierarchial</t>
         </is>
       </c>
       <c r="EU1" s="1" t="inlineStr">
         <is>
-          <t>round</t>
+          <t>needs</t>
         </is>
       </c>
       <c r="EV1" s="1" t="inlineStr">
         <is>
-          <t>intuitions</t>
+          <t>parent</t>
         </is>
       </c>
       <c r="EW1" s="1" t="inlineStr">
         <is>
-          <t>problems</t>
+          <t>teacher</t>
         </is>
       </c>
       <c r="EX1" s="1" t="inlineStr">
         <is>
-          <t>'s</t>
+          <t>decade</t>
         </is>
       </c>
       <c r="EY1" s="1" t="inlineStr">
         <is>
-          <t>discover</t>
+          <t>give</t>
         </is>
       </c>
       <c r="EZ1" s="1" t="inlineStr">
         <is>
-          <t>happen</t>
+          <t>insights</t>
         </is>
       </c>
       <c r="FA1" s="1" t="inlineStr">
         <is>
-          <t>i.q</t>
+          <t>unlocking</t>
         </is>
       </c>
       <c r="FB1" s="1" t="inlineStr">
         <is>
-          <t>if</t>
+          <t>143</t>
         </is>
       </c>
       <c r="FC1" s="1" t="inlineStr">
         <is>
-          <t>included</t>
+          <t>identifying</t>
         </is>
       </c>
       <c r="FD1" s="1" t="inlineStr">
         <is>
-          <t>own</t>
+          <t>imagery</t>
         </is>
       </c>
       <c r="FE1" s="1" t="inlineStr">
         <is>
-          <t>should</t>
+          <t>originality</t>
         </is>
       </c>
       <c r="FF1" s="1" t="inlineStr">
         <is>
-          <t>what</t>
+          <t>talent</t>
         </is>
       </c>
       <c r="FG1" s="1" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>highest</t>
         </is>
       </c>
       <c r="FH1" s="1" t="inlineStr">
         <is>
-          <t>aspects</t>
+          <t>man1</t>
         </is>
       </c>
       <c r="FI1" s="1" t="inlineStr">
         <is>
-          <t>classes</t>
+          <t>potentials</t>
         </is>
       </c>
       <c r="FJ1" s="1" t="inlineStr">
         <is>
-          <t>demonstration</t>
+          <t>appreciates</t>
         </is>
       </c>
       <c r="FK1" s="1" t="inlineStr">
         <is>
-          <t>guiding</t>
+          <t>friend</t>
         </is>
       </c>
       <c r="FL1" s="1" t="inlineStr">
         <is>
-          <t>california</t>
+          <t>giftedness</t>
         </is>
       </c>
       <c r="FM1" s="1" t="inlineStr">
         <is>
-          <t>curriculum</t>
+          <t>looking</t>
         </is>
       </c>
       <c r="FN1" s="1" t="inlineStr">
         <is>
-          <t>activities</t>
+          <t>rejected</t>
         </is>
       </c>
       <c r="FO1" s="1" t="inlineStr">
         <is>
-          <t>brief</t>
+          <t>self-acceptance</t>
         </is>
       </c>
       <c r="FP1" s="1" t="inlineStr">
         <is>
-          <t>nea</t>
+          <t>self-identification</t>
         </is>
       </c>
       <c r="FQ1" s="1" t="inlineStr">
         <is>
-          <t>overview</t>
+          <t>self-realization</t>
         </is>
       </c>
       <c r="FR1" s="1" t="inlineStr">
         <is>
-          <t>diary</t>
+          <t>course</t>
         </is>
       </c>
       <c r="FS1" s="1" t="inlineStr">
         <is>
-          <t>learning</t>
+          <t>offerings</t>
         </is>
       </c>
       <c r="FT1" s="1" t="inlineStr">
         <is>
-          <t>groups</t>
+          <t>psychology</t>
         </is>
       </c>
       <c r="FU1" s="1" t="inlineStr">
         <is>
-          <t>leadership</t>
+          <t>basis</t>
         </is>
       </c>
       <c r="FV1" s="1" t="inlineStr">
         <is>
-          <t>patterns</t>
+          <t>beginning</t>
         </is>
       </c>
       <c r="FW1" s="1" t="inlineStr">
         <is>
-          <t>affective</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="FX1" s="1" t="inlineStr">
         <is>
-          <t>boys</t>
+          <t>dinner</t>
         </is>
       </c>
       <c r="FY1" s="1" t="inlineStr">
         <is>
-          <t>domain</t>
+          <t>discussions</t>
         </is>
       </c>
       <c r="FZ1" s="1" t="inlineStr">
         <is>
-          <t>girls</t>
+          <t>home</t>
         </is>
       </c>
       <c r="GA1" s="1" t="inlineStr">
         <is>
-          <t>hierarchial</t>
+          <t>really</t>
         </is>
       </c>
       <c r="GB1" s="1" t="inlineStr">
         <is>
-          <t>needs</t>
+          <t>series</t>
         </is>
       </c>
       <c r="GC1" s="1" t="inlineStr">
         <is>
-          <t>parent</t>
+          <t>something</t>
         </is>
       </c>
       <c r="GD1" s="1" t="inlineStr">
         <is>
-          <t>she</t>
+          <t>table</t>
         </is>
       </c>
       <c r="GE1" s="1" t="inlineStr">
         <is>
-          <t>teacher</t>
+          <t>units</t>
         </is>
       </c>
       <c r="GF1" s="1" t="inlineStr">
         <is>
-          <t>will</t>
+          <t>use</t>
         </is>
       </c>
       <c r="GG1" s="1" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>want</t>
         </is>
       </c>
       <c r="GH1" s="1" t="inlineStr">
         <is>
-          <t>decade</t>
+          <t>learn</t>
         </is>
       </c>
       <c r="GI1" s="1" t="inlineStr">
         <is>
-          <t>give</t>
+          <t>learner</t>
         </is>
       </c>
       <c r="GJ1" s="1" t="inlineStr">
         <is>
-          <t>insights</t>
+          <t>sensitivity</t>
         </is>
       </c>
       <c r="GK1" s="1" t="inlineStr">
         <is>
-          <t>more</t>
+          <t>training</t>
         </is>
       </c>
       <c r="GL1" s="1" t="inlineStr">
         <is>
-          <t>unlocking</t>
+          <t>31</t>
         </is>
       </c>
       <c r="GM1" s="1" t="inlineStr">
         <is>
-          <t>when</t>
+          <t>acting</t>
         </is>
       </c>
       <c r="GN1" s="1" t="inlineStr">
         <is>
-          <t>yourself</t>
+          <t>beyond</t>
         </is>
       </c>
       <c r="GO1" s="1" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>emulation</t>
         </is>
       </c>
       <c r="GP1" s="1" t="inlineStr">
         <is>
-          <t>identifying</t>
+          <t>giftedly</t>
         </is>
       </c>
       <c r="GQ1" s="1" t="inlineStr">
         <is>
-          <t>imagery</t>
+          <t>merely</t>
         </is>
       </c>
       <c r="GR1" s="1" t="inlineStr">
         <is>
-          <t>originality</t>
+          <t>model</t>
         </is>
       </c>
       <c r="GS1" s="1" t="inlineStr">
         <is>
-          <t>talent</t>
+          <t>others</t>
         </is>
       </c>
       <c r="GT1" s="1" t="inlineStr">
         <is>
-          <t>highest</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="GU1" s="1" t="inlineStr">
         <is>
-          <t>man1</t>
+          <t>succeed</t>
         </is>
       </c>
       <c r="GV1" s="1" t="inlineStr">
         <is>
-          <t>potentials</t>
+          <t>worthy</t>
         </is>
       </c>
       <c r="GW1" s="1" t="inlineStr">
         <is>
-          <t>appreciates</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="GX1" s="1" t="inlineStr">
         <is>
-          <t>friend</t>
+          <t>360</t>
         </is>
       </c>
       <c r="GY1" s="1" t="inlineStr">
         <is>
-          <t>at</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="GZ1" s="1" t="inlineStr">
         <is>
-          <t>giftedness</t>
+          <t>bloomington</t>
         </is>
       </c>
       <c r="HA1" s="1" t="inlineStr">
         <is>
-          <t>is</t>
+          <t>editor</t>
         </is>
       </c>
       <c r="HB1" s="1" t="inlineStr">
         <is>
-          <t>looking</t>
+          <t>endeavor</t>
         </is>
       </c>
       <c r="HC1" s="1" t="inlineStr">
         <is>
-          <t>rejected</t>
+          <t>indiana</t>
         </is>
       </c>
       <c r="HD1" s="1" t="inlineStr">
         <is>
-          <t>self-acceptance</t>
+          <t>michael</t>
         </is>
       </c>
       <c r="HE1" s="1" t="inlineStr">
         <is>
-          <t>self-identification</t>
+          <t>pp</t>
         </is>
       </c>
       <c r="HF1" s="1" t="inlineStr">
         <is>
-          <t>self-realization</t>
+          <t>press</t>
         </is>
       </c>
       <c r="HG1" s="1" t="inlineStr">
         <is>
-          <t>why</t>
+          <t>teaching</t>
         </is>
       </c>
       <c r="HH1" s="1" t="inlineStr">
         <is>
-          <t>course</t>
+          <t>w.</t>
         </is>
       </c>
       <c r="HI1" s="1" t="inlineStr">
         <is>
-          <t>offerings</t>
+          <t>250</t>
         </is>
       </c>
       <c r="HJ1" s="1" t="inlineStr">
         <is>
-          <t>psychology</t>
+          <t>615</t>
         </is>
       </c>
       <c r="HK1" s="1" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>7.75</t>
         </is>
       </c>
       <c r="HL1" s="1" t="inlineStr">
         <is>
-          <t>basis</t>
+          <t>challenge</t>
         </is>
       </c>
       <c r="HM1" s="1" t="inlineStr">
         <is>
-          <t>beginning</t>
+          <t>francisco</t>
         </is>
       </c>
       <c r="HN1" s="1" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>heist</t>
         </is>
       </c>
       <c r="HO1" s="1" t="inlineStr">
         <is>
-          <t>dinner</t>
+          <t>inc.</t>
         </is>
       </c>
       <c r="HP1" s="1" t="inlineStr">
         <is>
-          <t>discussions</t>
+          <t>jossey-bass</t>
         </is>
       </c>
       <c r="HQ1" s="1" t="inlineStr">
         <is>
-          <t>home</t>
+          <t>montgomery</t>
         </is>
       </c>
       <c r="HR1" s="1" t="inlineStr">
         <is>
-          <t>really</t>
+          <t>paul</t>
         </is>
       </c>
       <c r="HS1" s="1" t="inlineStr">
         <is>
-          <t>series</t>
+          <t>san</t>
         </is>
       </c>
       <c r="HT1" s="1" t="inlineStr">
         <is>
-          <t>something</t>
+          <t>st.</t>
         </is>
       </c>
       <c r="HU1" s="1" t="inlineStr">
         <is>
-          <t>table</t>
+          <t>student</t>
         </is>
       </c>
       <c r="HV1" s="1" t="inlineStr">
-        <is>
-          <t>units</t>
-        </is>
-      </c>
-      <c r="HW1" s="1" t="inlineStr">
-        <is>
-          <t>use</t>
-        </is>
-      </c>
-      <c r="HX1" s="1" t="inlineStr">
-        <is>
-          <t>want</t>
-        </is>
-      </c>
-      <c r="HY1" s="1" t="inlineStr">
-        <is>
-          <t>can</t>
-        </is>
-      </c>
-      <c r="HZ1" s="1" t="inlineStr">
-        <is>
-          <t>learn</t>
-        </is>
-      </c>
-      <c r="IA1" s="1" t="inlineStr">
-        <is>
-          <t>learner</t>
-        </is>
-      </c>
-      <c r="IB1" s="1" t="inlineStr">
-        <is>
-          <t>only</t>
-        </is>
-      </c>
-      <c r="IC1" s="1" t="inlineStr">
-        <is>
-          <t>sensitivity</t>
-        </is>
-      </c>
-      <c r="ID1" s="1" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="IE1" s="1" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="IF1" s="1" t="inlineStr">
-        <is>
-          <t>acting</t>
-        </is>
-      </c>
-      <c r="IG1" s="1" t="inlineStr">
-        <is>
-          <t>beyond</t>
-        </is>
-      </c>
-      <c r="IH1" s="1" t="inlineStr">
-        <is>
-          <t>emulation</t>
-        </is>
-      </c>
-      <c r="II1" s="1" t="inlineStr">
-        <is>
-          <t>giftedly</t>
-        </is>
-      </c>
-      <c r="IJ1" s="1" t="inlineStr">
-        <is>
-          <t>merely</t>
-        </is>
-      </c>
-      <c r="IK1" s="1" t="inlineStr">
-        <is>
-          <t>model</t>
-        </is>
-      </c>
-      <c r="IL1" s="1" t="inlineStr">
-        <is>
-          <t>others</t>
-        </is>
-      </c>
-      <c r="IM1" s="1" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="IN1" s="1" t="inlineStr">
-        <is>
-          <t>succeed</t>
-        </is>
-      </c>
-      <c r="IO1" s="1" t="inlineStr">
-        <is>
-          <t>worthy</t>
-        </is>
-      </c>
-      <c r="IP1" s="1" t="inlineStr">
-        <is>
-          <t>1968</t>
-        </is>
-      </c>
-      <c r="IQ1" s="1" t="inlineStr">
-        <is>
-          <t>360</t>
-        </is>
-      </c>
-      <c r="IR1" s="1" t="inlineStr">
-        <is>
-          <t>7.50</t>
-        </is>
-      </c>
-      <c r="IS1" s="1" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="IT1" s="1" t="inlineStr">
-        <is>
-          <t>bloomington</t>
-        </is>
-      </c>
-      <c r="IU1" s="1" t="inlineStr">
-        <is>
-          <t>editor</t>
-        </is>
-      </c>
-      <c r="IV1" s="1" t="inlineStr">
-        <is>
-          <t>endeavor</t>
-        </is>
-      </c>
-      <c r="IW1" s="1" t="inlineStr">
-        <is>
-          <t>indiana</t>
-        </is>
-      </c>
-      <c r="IX1" s="1" t="inlineStr">
-        <is>
-          <t>michael</t>
-        </is>
-      </c>
-      <c r="IY1" s="1" t="inlineStr">
-        <is>
-          <t>pp</t>
-        </is>
-      </c>
-      <c r="IZ1" s="1" t="inlineStr">
-        <is>
-          <t>press</t>
-        </is>
-      </c>
-      <c r="JA1" s="1" t="inlineStr">
-        <is>
-          <t>teaching</t>
-        </is>
-      </c>
-      <c r="JB1" s="1" t="inlineStr">
-        <is>
-          <t>u</t>
-        </is>
-      </c>
-      <c r="JC1" s="1" t="inlineStr">
-        <is>
-          <t>w.</t>
-        </is>
-      </c>
-      <c r="JD1" s="1" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="JE1" s="1" t="inlineStr">
-        <is>
-          <t>615</t>
-        </is>
-      </c>
-      <c r="JF1" s="1" t="inlineStr">
-        <is>
-          <t>7.75</t>
-        </is>
-      </c>
-      <c r="JG1" s="1" t="inlineStr">
-        <is>
-          <t>challenge</t>
-        </is>
-      </c>
-      <c r="JH1" s="1" t="inlineStr">
-        <is>
-          <t>francisco</t>
-        </is>
-      </c>
-      <c r="JI1" s="1" t="inlineStr">
-        <is>
-          <t>heist</t>
-        </is>
-      </c>
-      <c r="JJ1" s="1" t="inlineStr">
-        <is>
-          <t>inc.</t>
-        </is>
-      </c>
-      <c r="JK1" s="1" t="inlineStr">
-        <is>
-          <t>jossey-bass</t>
-        </is>
-      </c>
-      <c r="JL1" s="1" t="inlineStr">
-        <is>
-          <t>montgomery</t>
-        </is>
-      </c>
-      <c r="JM1" s="1" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="JN1" s="1" t="inlineStr">
-        <is>
-          <t>paul</t>
-        </is>
-      </c>
-      <c r="JO1" s="1" t="inlineStr">
-        <is>
-          <t>san</t>
-        </is>
-      </c>
-      <c r="JP1" s="1" t="inlineStr">
-        <is>
-          <t>st.</t>
-        </is>
-      </c>
-      <c r="JQ1" s="1" t="inlineStr">
-        <is>
-          <t>student</t>
-        </is>
-      </c>
-      <c r="JR1" s="1" t="inlineStr">
         <is>
           <t>unmet</t>
         </is>
@@ -1835,205 +1595,205 @@
         <v>0.41</v>
       </c>
       <c r="E2" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="F2" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="G2" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="H2" t="n">
         <v>0.41</v>
       </c>
       <c r="I2" t="n">
-        <v>0.88</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="J2" t="n">
         <v>0.41</v>
       </c>
       <c r="K2" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="L2" t="n">
-        <v>2.38</v>
+        <v>2.64</v>
       </c>
       <c r="M2" t="n">
-        <v>0.89</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="O2" t="n">
         <v>0.61</v>
       </c>
       <c r="P2" t="n">
-        <v>1.27</v>
+        <v>0.46</v>
       </c>
       <c r="Q2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="U2" t="n">
         <v>0.4</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.62</v>
       </c>
       <c r="V2" t="n">
         <v>0.4</v>
       </c>
       <c r="W2" t="n">
-        <v>1.06</v>
+        <v>0.4</v>
       </c>
       <c r="X2" t="n">
-        <v>0.35</v>
+        <v>1.41</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.35</v>
+        <v>1.57</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.35</v>
+        <v>0.97</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.13</v>
+        <v>0.97</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.35</v>
+        <v>0.49</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.35</v>
+        <v>0.49</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.51</v>
+        <v>0.97</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.8899999999999999</v>
+        <v>1.58</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.87</v>
+        <v>1.61</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.45</v>
+        <v>0.66</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.45</v>
+        <v>0.66</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.87</v>
+        <v>0.58</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.47</v>
+        <v>0.58</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.46</v>
+        <v>0.58</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.87</v>
+        <v>0.52</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.66</v>
+        <v>0.52</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.66</v>
+        <v>0.52</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.5600000000000001</v>
+        <v>1</v>
       </c>
       <c r="AR2" t="n">
-        <v>2.11</v>
+        <v>0.79</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.49</v>
+        <v>1.41</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.49</v>
+        <v>0.4</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="AX2" t="n">
-        <v>1</v>
+        <v>2.76</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="BB2" t="n">
-        <v>1.33</v>
+        <v>0.4</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.49</v>
+        <v>0.77</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.75</v>
+        <v>0.55</v>
       </c>
       <c r="BG2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BL2" t="n">
         <v>0.53</v>
       </c>
-      <c r="BH2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>0.39</v>
-      </c>
       <c r="BM2" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.39</v>
+        <v>0.5</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.72</v>
+        <v>0.37</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.55</v>
+        <v>0.37</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.55</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.61</v>
+        <v>0.37</v>
       </c>
       <c r="BT2" t="n">
         <v>0.44</v>
@@ -2048,613 +1808,469 @@
         <v>0.44</v>
       </c>
       <c r="BX2" t="n">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="DL2" t="n">
         <v>0.53</v>
       </c>
-      <c r="BY2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="BZ2" t="n">
+      <c r="DM2" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="EG2" t="n">
         <v>0.48</v>
       </c>
-      <c r="CA2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>0.5700000000000001</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="DC2" t="n">
+      <c r="EH2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="GM2" t="n">
         <v>0.31</v>
       </c>
-      <c r="DD2" t="n">
+      <c r="GN2" t="n">
         <v>0.31</v>
       </c>
-      <c r="DE2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="DH2" t="n">
+      <c r="GO2" t="n">
         <v>0.31</v>
       </c>
-      <c r="DI2" t="n">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="DM2" t="n">
+      <c r="GP2" t="n">
         <v>0.31</v>
       </c>
-      <c r="DN2" t="n">
+      <c r="GQ2" t="n">
         <v>0.31</v>
       </c>
-      <c r="DO2" t="n">
+      <c r="GR2" t="n">
         <v>0.31</v>
       </c>
-      <c r="DP2" t="n">
+      <c r="GS2" t="n">
         <v>0.31</v>
       </c>
-      <c r="DQ2" t="n">
+      <c r="GT2" t="n">
         <v>0.31</v>
       </c>
-      <c r="DR2" t="n">
+      <c r="GU2" t="n">
         <v>0.31</v>
       </c>
-      <c r="DS2" t="n">
+      <c r="GV2" t="n">
         <v>0.31</v>
       </c>
-      <c r="DT2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="EM2" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="FW2" t="n">
+      <c r="GW2" t="n">
         <v>0.41</v>
       </c>
-      <c r="FX2" t="n">
+      <c r="GX2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="HA2" t="n">
         <v>0.41</v>
       </c>
-      <c r="FY2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>0.8200000000000001</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>0.48</v>
-      </c>
       <c r="HB2" t="n">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="HC2" t="n">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="HD2" t="n">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="HE2" t="n">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="HF2" t="n">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="HI2" t="n">
-        <v>0.5</v>
+        <v>0.24</v>
       </c>
       <c r="HJ2" t="n">
-        <v>0.5</v>
+        <v>0.24</v>
       </c>
       <c r="HK2" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="HL2" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="HM2" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="HN2" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="HO2" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="HP2" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="HR2" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="HT2" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="HU2" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="HV2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="II2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="IQ2" t="n">
         <v>0.24</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="JP2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="JQ2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="JR2" t="n">
-        <v>0.23</v>
       </c>
     </row>
   </sheetData>
